--- a/CfgReader/src/test/resources/参数表_init.xlsx
+++ b/CfgReader/src/test/resources/参数表_init.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qiunet/doc/petGame/design/excelConfig/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A16B677-DD7D-FB49-8F68-A26EB09EA390}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28000" windowHeight="16140"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -21,33 +15,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+  <si>
+    <t>键</t>
+  </si>
+  <si>
+    <t>值1</t>
+  </si>
+  <si>
+    <t>开始时间(10位时间戳)</t>
+  </si>
+  <si>
+    <t>结束时间(10位时间戳)</t>
+  </si>
+  <si>
+    <t>字段描述</t>
+  </si>
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>val1</t>
+  </si>
+  <si>
+    <t>val2</t>
+  </si>
+  <si>
+    <t>val3</t>
+  </si>
+  <si>
+    <t>对应代码里面字段名称</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>其它工具可能需要类型描述</t>
+  </si>
+  <si>
     <t>ALL</t>
   </si>
   <si>
     <t>SERVER</t>
   </si>
   <si>
-    <t>键</t>
-  </si>
-  <si>
-    <t>值1</t>
-  </si>
-  <si>
-    <t>开始时间(10位时间戳)</t>
-  </si>
-  <si>
-    <t>结束时间(10位时间戳)</t>
-  </si>
-  <si>
-    <t>val1</t>
-  </si>
-  <si>
-    <t>val2</t>
+    <t>服务器 客户端是否需要. 可以分别选择</t>
   </si>
   <si>
     <t>1,2,3</t>
@@ -57,18 +72,28 @@
   </si>
   <si>
     <t>5,6,7</t>
-  </si>
-  <si>
-    <t>val3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
-    <font>
-      <sz val="11"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -79,24 +104,348 @@
       <sz val="13.5"/>
       <color rgb="FF629755"/>
       <name val="Menlo-Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -104,26 +453,316 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -381,126 +1020,161 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
-    <col min="3" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.8359375" customWidth="1"/>
+    <col min="7" max="7" width="42.4453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:7">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
+    <row r="3" s="1" customFormat="1" ht="14.8" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
+    <row r="4" s="1" customFormat="1" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18">
-      <c r="A4" s="1">
+    <row r="5" ht="16.8" spans="1:4">
+      <c r="A5" s="4">
         <v>1111</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
         <v>123456</v>
       </c>
-      <c r="D4">
-        <v>1.1000000000000001</v>
+      <c r="D5">
+        <v>1.1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18">
-      <c r="A5" s="1">
+    <row r="6" ht="16.8" spans="1:4">
+      <c r="A6" s="4">
         <v>2222</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
         <v>123457</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>1.2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18">
-      <c r="A6" s="1">
+    <row r="7" ht="16.8" spans="1:4">
+      <c r="A7" s="4">
         <v>3333</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7">
         <v>123458</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>1.3</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:D3" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="选择类型" sqref="A3 B3 C3 D3">
+      <formula1>"int,string,long"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:D4">
       <formula1>"ALL,SERVER,CLIENT"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.8359375" defaultRowHeight="14"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/CfgReader/src/test/resources/参数表_init.xlsx
+++ b/CfgReader/src/test/resources/参数表_init.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>键</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>int</t>
+  </si>
+  <si>
+    <t>int[]</t>
   </si>
   <si>
     <t>string</t>
@@ -79,8 +82,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
@@ -107,6 +110,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -115,29 +125,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,8 +141,62 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,63 +210,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,23 +253,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,37 +269,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,139 +449,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,6 +460,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -484,11 +517,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,37 +547,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,148 +563,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -703,7 +712,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1029,7 +1038,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -1083,27 +1092,27 @@
         <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" ht="16.8" spans="1:4">
@@ -1111,7 +1120,7 @@
         <v>1111</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>123456</v>
@@ -1125,7 +1134,7 @@
         <v>2222</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>123457</v>
@@ -1139,7 +1148,7 @@
         <v>3333</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>123458</v>
@@ -1151,7 +1160,7 @@
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="选择类型" sqref="A3 B3 C3 D3">
-      <formula1>"int,string,long"</formula1>
+      <formula1>"int,string,long,int[],long[]"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:D4">
       <formula1>"ALL,SERVER,CLIENT"</formula1>

--- a/CfgReader/src/test/resources/参数表_init.xlsx
+++ b/CfgReader/src/test/resources/参数表_init.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="16140"/>
+    <workbookView windowHeight="17020"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -68,13 +68,13 @@
     <t>服务器 客户端是否需要. 可以分别选择</t>
   </si>
   <si>
-    <t>1,2,3</t>
-  </si>
-  <si>
-    <t>3,4,5</t>
-  </si>
-  <si>
-    <t>5,6,7</t>
+    <t>1;2;3</t>
+  </si>
+  <si>
+    <t>3;4;5</t>
+  </si>
+  <si>
+    <t>5;6;7</t>
   </si>
 </sst>
 </file>
@@ -82,23 +82,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -112,23 +112,45 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -136,68 +158,52 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -205,28 +211,23 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -234,23 +235,22 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -281,175 +281,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,6 +460,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -481,8 +514,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,195 +560,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -718,55 +718,55 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1038,13 +1038,13 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
-    <col min="3" max="4" width="18.8359375" customWidth="1"/>
-    <col min="7" max="7" width="42.4453125" customWidth="1"/>
+    <col min="3" max="4" width="18.8382352941176" customWidth="1"/>
+    <col min="7" max="7" width="42.4485294117647" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:7">
@@ -1081,7 +1081,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.8" spans="1:7">
+    <row r="3" s="1" customFormat="1" ht="17.6" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" ht="16.8" spans="1:4">
+    <row r="5" spans="1:4">
       <c r="A5" s="4">
         <v>1111</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>1.1</v>
       </c>
     </row>
-    <row r="6" ht="16.8" spans="1:4">
+    <row r="6" spans="1:4">
       <c r="A6" s="4">
         <v>2222</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="7" ht="16.8" spans="1:4">
+    <row r="7" spans="1:4">
       <c r="A7" s="4">
         <v>3333</v>
       </c>
@@ -1181,7 +1181,7 @@
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8359375" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.83823529411765" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
